--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tnc-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tnc-Itgb3.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.948174</v>
+        <v>3.575558</v>
       </c>
       <c r="H2">
-        <v>26.844522</v>
+        <v>10.726674</v>
       </c>
       <c r="I2">
-        <v>0.0695931738232498</v>
+        <v>0.025194653521236</v>
       </c>
       <c r="J2">
-        <v>0.0695931738232498</v>
+        <v>0.02519465352123599</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.778439</v>
+        <v>2.598166333333333</v>
       </c>
       <c r="N2">
-        <v>11.335317</v>
+        <v>7.794499</v>
       </c>
       <c r="O2">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="P2">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="Q2">
-        <v>33.810129620386</v>
+        <v>9.289894418480666</v>
       </c>
       <c r="R2">
-        <v>304.291166583474</v>
+        <v>83.609049766326</v>
       </c>
       <c r="S2">
-        <v>0.02959777868360118</v>
+        <v>0.008732500473650179</v>
       </c>
       <c r="T2">
-        <v>0.02959777868360118</v>
+        <v>0.008732500473650177</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.948174</v>
+        <v>3.575558</v>
       </c>
       <c r="H3">
-        <v>26.844522</v>
+        <v>10.726674</v>
       </c>
       <c r="I3">
-        <v>0.0695931738232498</v>
+        <v>0.025194653521236</v>
       </c>
       <c r="J3">
-        <v>0.0695931738232498</v>
+        <v>0.02519465352123599</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.333403333333334</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N3">
         <v>13.00021</v>
       </c>
       <c r="O3">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="P3">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="Q3">
-        <v>38.77604703884667</v>
+        <v>15.49433495572666</v>
       </c>
       <c r="R3">
-        <v>348.98442334962</v>
+        <v>139.44901460154</v>
       </c>
       <c r="S3">
-        <v>0.03394500025189758</v>
+        <v>0.01456467439184376</v>
       </c>
       <c r="T3">
-        <v>0.03394500025189758</v>
+        <v>0.01456467439184376</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.948174</v>
+        <v>3.575558</v>
       </c>
       <c r="H4">
-        <v>26.844522</v>
+        <v>10.726674</v>
       </c>
       <c r="I4">
-        <v>0.0695931738232498</v>
+        <v>0.025194653521236</v>
       </c>
       <c r="J4">
-        <v>0.0695931738232498</v>
+        <v>0.02519465352123599</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4814053333333333</v>
+        <v>0.4692043333333333</v>
       </c>
       <c r="N4">
-        <v>1.444216</v>
+        <v>1.407613</v>
       </c>
       <c r="O4">
-        <v>0.0541864822020464</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="P4">
-        <v>0.05418648220204641</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="Q4">
-        <v>4.307698687194666</v>
+        <v>1.677667307684666</v>
       </c>
       <c r="R4">
-        <v>38.76928818475199</v>
+        <v>15.099005769162</v>
       </c>
       <c r="S4">
-        <v>0.003771009274757446</v>
+        <v>0.001577007218708495</v>
       </c>
       <c r="T4">
-        <v>0.003771009274757447</v>
+        <v>0.001577007218708495</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.948174</v>
+        <v>3.575558</v>
       </c>
       <c r="H5">
-        <v>26.844522</v>
+        <v>10.726674</v>
       </c>
       <c r="I5">
-        <v>0.0695931738232498</v>
+        <v>0.025194653521236</v>
       </c>
       <c r="J5">
-        <v>0.0695931738232498</v>
+        <v>0.02519465352123599</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.2909853333333333</v>
+        <v>0.09534933333333333</v>
       </c>
       <c r="N5">
-        <v>0.872956</v>
+        <v>0.286048</v>
       </c>
       <c r="O5">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764605</v>
       </c>
       <c r="P5">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764604</v>
       </c>
       <c r="Q5">
-        <v>2.603787394114666</v>
+        <v>0.3409270715946666</v>
       </c>
       <c r="R5">
-        <v>23.434086547032</v>
+        <v>3.068343644351999</v>
       </c>
       <c r="S5">
-        <v>0.002279385612993597</v>
+        <v>0.0003204714370335651</v>
       </c>
       <c r="T5">
-        <v>0.002279385612993597</v>
+        <v>0.000320471437033565</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>317.640397</v>
       </c>
       <c r="I6">
-        <v>0.8234679448457706</v>
+        <v>0.7460690747908298</v>
       </c>
       <c r="J6">
-        <v>0.8234679448457706</v>
+        <v>0.7460690747908298</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.778439</v>
+        <v>2.598166333333333</v>
       </c>
       <c r="N6">
-        <v>11.335317</v>
+        <v>7.794499</v>
       </c>
       <c r="O6">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="P6">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="Q6">
-        <v>400.0616213334277</v>
+        <v>275.0941951973448</v>
       </c>
       <c r="R6">
-        <v>3600.554592000849</v>
+        <v>2475.847756776103</v>
       </c>
       <c r="S6">
-        <v>0.3502185723916864</v>
+        <v>0.2585885352023312</v>
       </c>
       <c r="T6">
-        <v>0.3502185723916864</v>
+        <v>0.2585885352023312</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>317.640397</v>
       </c>
       <c r="I7">
-        <v>0.8234679448457706</v>
+        <v>0.7460690747908298</v>
       </c>
       <c r="J7">
-        <v>0.8234679448457706</v>
+        <v>0.7460690747908298</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.333403333333334</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N7">
         <v>13.00021</v>
       </c>
       <c r="O7">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="P7">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="Q7">
-        <v>458.8213183870412</v>
+        <v>458.8213183870411</v>
       </c>
       <c r="R7">
-        <v>4129.391865483371</v>
+        <v>4129.39186548337</v>
       </c>
       <c r="S7">
-        <v>0.401657491095496</v>
+        <v>0.4312920254685641</v>
       </c>
       <c r="T7">
-        <v>0.401657491095496</v>
+        <v>0.4312920254685641</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>317.640397</v>
       </c>
       <c r="I8">
-        <v>0.8234679448457706</v>
+        <v>0.7460690747908298</v>
       </c>
       <c r="J8">
-        <v>0.8234679448457706</v>
+        <v>0.7460690747908298</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.4814053333333333</v>
+        <v>0.4692043333333333</v>
       </c>
       <c r="N8">
-        <v>1.444216</v>
+        <v>1.407613</v>
       </c>
       <c r="O8">
-        <v>0.0541864822020464</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="P8">
-        <v>0.05418648220204641</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="Q8">
-        <v>50.97126039930578</v>
+        <v>49.67941690470678</v>
       </c>
       <c r="R8">
-        <v>458.741343593752</v>
+        <v>447.114752142361</v>
       </c>
       <c r="S8">
-        <v>0.04462083113734108</v>
+        <v>0.04669865039456148</v>
       </c>
       <c r="T8">
-        <v>0.04462083113734108</v>
+        <v>0.04669865039456148</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>317.640397</v>
       </c>
       <c r="I9">
-        <v>0.8234679448457706</v>
+        <v>0.7460690747908298</v>
       </c>
       <c r="J9">
-        <v>0.8234679448457706</v>
+        <v>0.7460690747908298</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.2909853333333333</v>
+        <v>0.09534933333333333</v>
       </c>
       <c r="N9">
-        <v>0.872956</v>
+        <v>0.286048</v>
       </c>
       <c r="O9">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764605</v>
       </c>
       <c r="P9">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764604</v>
       </c>
       <c r="Q9">
-        <v>30.80956560039244</v>
+        <v>10.09560003122844</v>
       </c>
       <c r="R9">
-        <v>277.286090403532</v>
+        <v>90.86040028105599</v>
       </c>
       <c r="S9">
-        <v>0.02697105022124718</v>
+        <v>0.009489863725373039</v>
       </c>
       <c r="T9">
-        <v>0.02697105022124718</v>
+        <v>0.009489863725373039</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.635153</v>
+        <v>32.36130266666667</v>
       </c>
       <c r="H10">
-        <v>40.905459</v>
+        <v>97.08390800000001</v>
       </c>
       <c r="I10">
-        <v>0.1060454985380935</v>
+        <v>0.2280292497513723</v>
       </c>
       <c r="J10">
-        <v>0.1060454985380935</v>
+        <v>0.2280292497513723</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.778439</v>
+        <v>2.598166333333333</v>
       </c>
       <c r="N10">
-        <v>11.335317</v>
+        <v>7.794499</v>
       </c>
       <c r="O10">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="P10">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="Q10">
-        <v>51.51959386616701</v>
+        <v>84.08004709134356</v>
       </c>
       <c r="R10">
-        <v>463.676344795503</v>
+        <v>756.720423822092</v>
       </c>
       <c r="S10">
-        <v>0.04510084859894775</v>
+        <v>0.07903524173418623</v>
       </c>
       <c r="T10">
-        <v>0.04510084859894774</v>
+        <v>0.07903524173418623</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>13.635153</v>
+        <v>32.36130266666667</v>
       </c>
       <c r="H11">
-        <v>40.905459</v>
+        <v>97.08390800000001</v>
       </c>
       <c r="I11">
-        <v>0.1060454985380935</v>
+        <v>0.2280292497513723</v>
       </c>
       <c r="J11">
-        <v>0.1060454985380935</v>
+        <v>0.2280292497513723</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.333403333333334</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N11">
         <v>13.00021</v>
       </c>
       <c r="O11">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="P11">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="Q11">
-        <v>59.08661746071001</v>
+        <v>140.2345768467422</v>
       </c>
       <c r="R11">
-        <v>531.7795571463901</v>
+        <v>1262.11119162068</v>
       </c>
       <c r="S11">
-        <v>0.05172510861094812</v>
+        <v>0.1318204980134304</v>
       </c>
       <c r="T11">
-        <v>0.05172510861094811</v>
+        <v>0.1318204980134304</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>13.635153</v>
+        <v>32.36130266666667</v>
       </c>
       <c r="H12">
-        <v>40.905459</v>
+        <v>97.08390800000001</v>
       </c>
       <c r="I12">
-        <v>0.1060454985380935</v>
+        <v>0.2280292497513723</v>
       </c>
       <c r="J12">
-        <v>0.1060454985380935</v>
+        <v>0.2280292497513723</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.4814053333333333</v>
+        <v>0.4692043333333333</v>
       </c>
       <c r="N12">
-        <v>1.444216</v>
+        <v>1.407613</v>
       </c>
       <c r="O12">
-        <v>0.0541864822020464</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="P12">
-        <v>0.05418648220204641</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="Q12">
-        <v>6.564035375016</v>
+        <v>15.18406344351156</v>
       </c>
       <c r="R12">
-        <v>59.076318375144</v>
+        <v>136.656570991604</v>
       </c>
       <c r="S12">
-        <v>0.00574623251914154</v>
+        <v>0.01427301917970393</v>
       </c>
       <c r="T12">
-        <v>0.00574623251914154</v>
+        <v>0.01427301917970393</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>13.635153</v>
+        <v>32.36130266666667</v>
       </c>
       <c r="H13">
-        <v>40.905459</v>
+        <v>97.08390800000001</v>
       </c>
       <c r="I13">
-        <v>0.1060454985380935</v>
+        <v>0.2280292497513723</v>
       </c>
       <c r="J13">
-        <v>0.1060454985380935</v>
+        <v>0.2280292497513723</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.2909853333333333</v>
+        <v>0.09534933333333333</v>
       </c>
       <c r="N13">
-        <v>0.872956</v>
+        <v>0.286048</v>
       </c>
       <c r="O13">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764605</v>
       </c>
       <c r="P13">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764604</v>
       </c>
       <c r="Q13">
-        <v>3.967629540756</v>
+        <v>3.085628635064889</v>
       </c>
       <c r="R13">
-        <v>35.708665866804</v>
+        <v>27.770657715584</v>
       </c>
       <c r="S13">
-        <v>0.00347330880905607</v>
+        <v>0.002900490824051745</v>
       </c>
       <c r="T13">
-        <v>0.00347330880905607</v>
+        <v>0.002900490824051745</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.1148696666666667</v>
+        <v>0.1003386666666667</v>
       </c>
       <c r="H14">
-        <v>0.3446090000000001</v>
+        <v>0.301016</v>
       </c>
       <c r="I14">
-        <v>0.0008933827928862467</v>
+        <v>0.000707021936561918</v>
       </c>
       <c r="J14">
-        <v>0.0008933827928862467</v>
+        <v>0.0007070219365619179</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.778439</v>
+        <v>2.598166333333333</v>
       </c>
       <c r="N14">
-        <v>11.335317</v>
+        <v>7.794499</v>
       </c>
       <c r="O14">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="P14">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="Q14">
-        <v>0.4340280284503334</v>
+        <v>0.2606965456648889</v>
       </c>
       <c r="R14">
-        <v>3.906252256053</v>
+        <v>2.346268910984</v>
       </c>
       <c r="S14">
-        <v>0.0003799531582040135</v>
+        <v>0.0002450547450753404</v>
       </c>
       <c r="T14">
-        <v>0.0003799531582040135</v>
+        <v>0.0002450547450753404</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.1148696666666667</v>
+        <v>0.1003386666666667</v>
       </c>
       <c r="H15">
-        <v>0.3446090000000001</v>
+        <v>0.301016</v>
       </c>
       <c r="I15">
-        <v>0.0008933827928862467</v>
+        <v>0.000707021936561918</v>
       </c>
       <c r="J15">
-        <v>0.0008933827928862467</v>
+        <v>0.0007070219365619179</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.333403333333334</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N15">
         <v>13.00021</v>
       </c>
       <c r="O15">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="P15">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="Q15">
-        <v>0.4977765964322224</v>
+        <v>0.4348079125955556</v>
       </c>
       <c r="R15">
-        <v>4.479989367890001</v>
+        <v>3.91327121336</v>
       </c>
       <c r="S15">
-        <v>0.0004357593922442044</v>
+        <v>0.000408719424747619</v>
       </c>
       <c r="T15">
-        <v>0.0004357593922442044</v>
+        <v>0.0004087194247476189</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.1148696666666667</v>
+        <v>0.1003386666666667</v>
       </c>
       <c r="H16">
-        <v>0.3446090000000001</v>
+        <v>0.301016</v>
       </c>
       <c r="I16">
-        <v>0.0008933827928862467</v>
+        <v>0.000707021936561918</v>
       </c>
       <c r="J16">
-        <v>0.0008933827928862467</v>
+        <v>0.0007070219365619179</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.4814053333333333</v>
+        <v>0.4692043333333333</v>
       </c>
       <c r="N16">
-        <v>1.444216</v>
+        <v>1.407613</v>
       </c>
       <c r="O16">
-        <v>0.0541864822020464</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="P16">
-        <v>0.05418648220204641</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="Q16">
-        <v>0.05529887017155556</v>
+        <v>0.04707933720088889</v>
       </c>
       <c r="R16">
-        <v>0.497689831544</v>
+        <v>0.423714034808</v>
       </c>
       <c r="S16">
-        <v>4.840927080634512E-05</v>
+        <v>4.425457555126188E-05</v>
       </c>
       <c r="T16">
-        <v>4.840927080634513E-05</v>
+        <v>4.425457555126188E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.1148696666666667</v>
+        <v>0.1003386666666667</v>
       </c>
       <c r="H17">
-        <v>0.3446090000000001</v>
+        <v>0.301016</v>
       </c>
       <c r="I17">
-        <v>0.0008933827928862467</v>
+        <v>0.000707021936561918</v>
       </c>
       <c r="J17">
-        <v>0.0008933827928862467</v>
+        <v>0.0007070219365619179</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.2909853333333333</v>
+        <v>0.09534933333333333</v>
       </c>
       <c r="N17">
-        <v>0.872956</v>
+        <v>0.286048</v>
       </c>
       <c r="O17">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764605</v>
       </c>
       <c r="P17">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764604</v>
       </c>
       <c r="Q17">
-        <v>0.03342538824488889</v>
+        <v>0.009567224974222223</v>
       </c>
       <c r="R17">
-        <v>0.300828494204</v>
+        <v>0.086105024768</v>
       </c>
       <c r="S17">
-        <v>2.926097163168377E-05</v>
+        <v>8.99319118769673E-06</v>
       </c>
       <c r="T17">
-        <v>2.926097163168377E-05</v>
+        <v>8.993191187696729E-06</v>
       </c>
     </row>
   </sheetData>
